--- a/biology/Médecine/Artère_interlobulaire/Artère_interlobulaire.xlsx
+++ b/biology/Médecine/Artère_interlobulaire/Artère_interlobulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_interlobulaire</t>
+          <t>Artère_interlobulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères interlobulaires sont des vaisseaux sanguins rénaux partant à angle droit depuis les artères arquées dans la corticale. 
 Ces vaisseaux ne s'anastomosent pas entre eux, formant des artères terminales. 
 Pendant leur trajet vers l'extérieur, elles dégagent des branches latérales, qui sont les artérioles afférentes alimentant les corpuscules rénaux. Les artérioles afférentes pénètrent alors dans la capsule de Bowman et se terminent dans le glomérule. 
-Les artères interlobulaires limitent le lobule rénal cortical, composé d'une partie radiée centrale (ou pyramide de Ferrein) formée par des prolongements de médullaire rénale, et une partie contournée (ou labyrinthe rénal) périphérique contenant les tubules contournés[1].
+Les artères interlobulaires limitent le lobule rénal cortical, composé d'une partie radiée centrale (ou pyramide de Ferrein) formée par des prolongements de médullaire rénale, et une partie contournée (ou labyrinthe rénal) périphérique contenant les tubules contournés.
 </t>
         </is>
       </c>
